--- a/data/trans_bre/IP16A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 24,61</t>
+          <t>-26,4; 25,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 22,58</t>
+          <t>-41,91; 22,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,74; 25,39</t>
+          <t>-47,34; 24,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 53,16</t>
+          <t>-34,07; 53,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 44,39</t>
+          <t>-49,24; 41,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,24; 62,59</t>
+          <t>-70,85; 55,16</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 18,57</t>
+          <t>-4,45; 19,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 16,61</t>
+          <t>-6,57; 16,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 10,04</t>
+          <t>-17,46; 10,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 33,67</t>
+          <t>-6,11; 37,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 34,64</t>
+          <t>-10,6; 34,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 19,76</t>
+          <t>-27,18; 18,28</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 18,64</t>
+          <t>-15,75; 19,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 36,82</t>
+          <t>-9,74; 34,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 18,56</t>
+          <t>-18,68; 18,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 32,54</t>
+          <t>-21,49; 33,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 102,28</t>
+          <t>-16,84; 93,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 37,03</t>
+          <t>-26,89; 38,13</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 13,85</t>
+          <t>-5,14; 14,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 16,2</t>
+          <t>-3,31; 16,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 8,24</t>
+          <t>-14,16; 7,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 24,06</t>
+          <t>-7,93; 24,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 32,92</t>
+          <t>-5,43; 33,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 15,5</t>
+          <t>-22,64; 12,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-20,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,56%</t>
         </is>
       </c>
     </row>
@@ -673,44 +673,44 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-24,59; 23,62</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-41,35; 21,57</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-63,4; 13,63</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,23; 53,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,37; 41,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,98; 25,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,34</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,2%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,69%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 25,32</t>
+          <t>-4,24; 18,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 22,88</t>
+          <t>-8,48; 16,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 24,39</t>
+          <t>-14,45; 24,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 53,5</t>
+          <t>-6,43; 34,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,24; 41,81</t>
+          <t>-13,56; 34,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,85; 55,16</t>
+          <t>-22,57; 50,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 19,33</t>
+          <t>-16,17; 19,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 16,89</t>
+          <t>-6,19; 35,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 10,01</t>
+          <t>-17,93; 19,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 37,56</t>
+          <t>-21,95; 34,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 34,54</t>
+          <t>-10,31; 101,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 18,28</t>
+          <t>-25,86; 42,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,18</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>-0,85%</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 19,32</t>
+          <t>-4,42; 14,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 34,7</t>
+          <t>-3,41; 17,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 18,1</t>
+          <t>-12,31; 18,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,131 +993,30 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 33,87</t>
+          <t>-6,48; 25,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 93,35</t>
+          <t>-5,76; 33,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 38,13</t>
+          <t>-19,81; 34,17</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,57</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,74%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>11,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-6,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 14,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 16,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; 7,35</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 24,76</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 33,61</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-22,64; 12,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
